--- a/data/trans_orig/P36B02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B02-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>32866</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22786</v>
+        <v>23866</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45602</v>
+        <v>46879</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03185512163874786</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02208527361994569</v>
+        <v>0.02313213797803698</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04420019297451839</v>
+        <v>0.04543763192308233</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -765,19 +765,19 @@
         <v>32421</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23008</v>
+        <v>22690</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46678</v>
+        <v>45274</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02465286410503183</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01749540794731139</v>
+        <v>0.01725334668164835</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03549318844027501</v>
+        <v>0.03442582238479153</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>65</v>
@@ -786,19 +786,19 @@
         <v>65287</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>50861</v>
+        <v>51143</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>84414</v>
+        <v>82792</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02781914213583583</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02167236444544619</v>
+        <v>0.02179213136848297</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03596908734728968</v>
+        <v>0.0352780052271055</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>15320</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8885</v>
+        <v>9063</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24939</v>
+        <v>23990</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0148491039628909</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.008612085691849104</v>
+        <v>0.008784168683670678</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02417191231169115</v>
+        <v>0.02325255870193082</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -836,19 +836,19 @@
         <v>9116</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4616</v>
+        <v>4728</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17246</v>
+        <v>17569</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.006931930989224263</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.00350986630825614</v>
+        <v>0.003594779549138774</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01311406271589455</v>
+        <v>0.01335928962635141</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>25</v>
@@ -857,19 +857,19 @@
         <v>24436</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>16147</v>
+        <v>16879</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>35243</v>
+        <v>37235</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01041250228721587</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.006880166021765125</v>
+        <v>0.007192443814593907</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01501704958008251</v>
+        <v>0.01586606348554755</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>38170</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>28053</v>
+        <v>27051</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>51998</v>
+        <v>52426</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03699636083104534</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02719079462799905</v>
+        <v>0.02621962034986779</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05039932715980985</v>
+        <v>0.05081444474623006</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>36</v>
@@ -907,19 +907,19 @@
         <v>35849</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>26262</v>
+        <v>25723</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>49303</v>
+        <v>50074</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02725954287775967</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01996908423619042</v>
+        <v>0.01955953060520414</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03748958202970325</v>
+        <v>0.03807612926859615</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>75</v>
@@ -928,19 +928,19 @@
         <v>74019</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>58116</v>
+        <v>57905</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>91417</v>
+        <v>90657</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03154007195230386</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02476368415398518</v>
+        <v>0.02467350196772761</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03895351061712148</v>
+        <v>0.03862956657375215</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>50388</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37990</v>
+        <v>38628</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>65427</v>
+        <v>65629</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04883845894402043</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03682232594330963</v>
+        <v>0.03744009071247516</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0634152346085874</v>
+        <v>0.06361103515343648</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>54</v>
@@ -978,19 +978,19 @@
         <v>54698</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>42946</v>
+        <v>40318</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>70694</v>
+        <v>69594</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04159156730905028</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03265560593341379</v>
+        <v>0.03065780167143298</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05375507179961844</v>
+        <v>0.05291871360114597</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>106</v>
@@ -999,19 +999,19 @@
         <v>105085</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>86112</v>
+        <v>86146</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>126242</v>
+        <v>125722</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04477746751714577</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03669291670222112</v>
+        <v>0.03670740356390173</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05379237713943762</v>
+        <v>0.05357077168808069</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>894979</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>872314</v>
+        <v>874245</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>916482</v>
+        <v>916258</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8674609546232955</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8454926946030876</v>
+        <v>0.8473641968645844</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8883026176727091</v>
+        <v>0.8880848726198169</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1160</v>
@@ -1049,19 +1049,19 @@
         <v>1183028</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1160169</v>
+        <v>1158855</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1203715</v>
+        <v>1203804</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8995640947189339</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8821821392491691</v>
+        <v>0.8811832043301955</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9152943157931859</v>
+        <v>0.9153615918923381</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2058</v>
@@ -1070,19 +1070,19 @@
         <v>2078007</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2044323</v>
+        <v>2046184</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2105910</v>
+        <v>2107970</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8854508161074987</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8710977968994457</v>
+        <v>0.8718908397480575</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8973403759418258</v>
+        <v>0.8982181871794505</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>41877</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30368</v>
+        <v>30355</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>57644</v>
+        <v>57561</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02474212172205455</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01794263910924913</v>
+        <v>0.01793452649931762</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03405800323539564</v>
+        <v>0.03400861358763797</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -1195,19 +1195,19 @@
         <v>40530</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29440</v>
+        <v>29716</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54445</v>
+        <v>54355</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02554622267253973</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01855617833731175</v>
+        <v>0.01873019880274239</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03431663059903056</v>
+        <v>0.03425990305677483</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>77</v>
@@ -1216,19 +1216,19 @@
         <v>82407</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>64454</v>
+        <v>63828</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>101889</v>
+        <v>102479</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02513117662850793</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01965615882054178</v>
+        <v>0.01946536866544794</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03107262815599405</v>
+        <v>0.03125256863941931</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>19335</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>12344</v>
+        <v>11856</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>31064</v>
+        <v>29472</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01142387864786339</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.007293234680016693</v>
+        <v>0.007004601994797121</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01835372098463933</v>
+        <v>0.01741318485436754</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>17</v>
@@ -1266,19 +1266,19 @@
         <v>18473</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10806</v>
+        <v>10969</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>29144</v>
+        <v>29856</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01164351574042915</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.006811253105733939</v>
+        <v>0.006913480747009459</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01836971130128644</v>
+        <v>0.0188184385213824</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>37</v>
@@ -1287,19 +1287,19 @@
         <v>37808</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>26572</v>
+        <v>27350</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>52444</v>
+        <v>52904</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01153014750434255</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.008103666886530421</v>
+        <v>0.008340694717616174</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01599356106093985</v>
+        <v>0.01613374201280183</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>57085</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>43339</v>
+        <v>43705</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>74851</v>
+        <v>74697</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.033727502140303</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02560629892442523</v>
+        <v>0.0258224756328361</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04422415754282587</v>
+        <v>0.0441335288879245</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>40</v>
@@ -1337,19 +1337,19 @@
         <v>40518</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>29049</v>
+        <v>29185</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>55994</v>
+        <v>53414</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02553876903323233</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01830982591856919</v>
+        <v>0.0183954950128923</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03529336255359763</v>
+        <v>0.03366713655767466</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>93</v>
@@ -1358,19 +1358,19 @@
         <v>97603</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>78730</v>
+        <v>80311</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>117408</v>
+        <v>118812</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02976547872642597</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02400973852877995</v>
+        <v>0.02449205832859746</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03580514429179517</v>
+        <v>0.03623340729069906</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>90873</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>74154</v>
+        <v>74191</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>111718</v>
+        <v>109861</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05369045981253469</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04381255241641598</v>
+        <v>0.04383422858532669</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06600652003574899</v>
+        <v>0.06490957757808126</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>89</v>
@@ -1408,19 +1408,19 @@
         <v>90611</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>73801</v>
+        <v>72102</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>111367</v>
+        <v>110591</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05711215335621057</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0465166998160028</v>
+        <v>0.04544628591790865</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0701946662025477</v>
+        <v>0.06970574255018008</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>183</v>
@@ -1429,19 +1429,19 @@
         <v>181483</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>155243</v>
+        <v>156378</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>208432</v>
+        <v>208401</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05534600649575115</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0473435170739968</v>
+        <v>0.04768978147816021</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06356439917478542</v>
+        <v>0.06355496824677405</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>1483361</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1454569</v>
+        <v>1457670</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1507618</v>
+        <v>1509621</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8764160376772444</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8594044676929182</v>
+        <v>0.8612365382994577</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8907473610010287</v>
+        <v>0.8919308249488815</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1368</v>
@@ -1479,19 +1479,19 @@
         <v>1396408</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1369157</v>
+        <v>1369446</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1421340</v>
+        <v>1422617</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8801593391975883</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8629831752531925</v>
+        <v>0.8631648271278548</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8958738907924778</v>
+        <v>0.8966787107932601</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2811</v>
@@ -1500,19 +1500,19 @@
         <v>2879769</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2839777</v>
+        <v>2843326</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2916394</v>
+        <v>2919890</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8782271906449725</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8660310329399711</v>
+        <v>0.8671132207218877</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8893965692279726</v>
+        <v>0.8904625883376196</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>7574</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3143</v>
+        <v>3166</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15289</v>
+        <v>15834</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01373626675551804</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005700693251112276</v>
+        <v>0.005741699307672235</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02772766032513033</v>
+        <v>0.02871607423056025</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -1625,19 +1625,19 @@
         <v>7415</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3202</v>
+        <v>3083</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14709</v>
+        <v>14735</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01556474666798821</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006721100858252221</v>
+        <v>0.00647153882657576</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03087375874490747</v>
+        <v>0.03092935711385794</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -1646,19 +1646,19 @@
         <v>14990</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8079</v>
+        <v>8757</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24348</v>
+        <v>25453</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01458379790899775</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007860095193910026</v>
+        <v>0.008520061652280315</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.023689328824563</v>
+        <v>0.02476413486573524</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>4695</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1099</v>
+        <v>969</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12143</v>
+        <v>11470</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.008514177956185661</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.001993270002088313</v>
+        <v>0.001756580079956676</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02202191023603214</v>
+        <v>0.0208012221291107</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4739</v>
+        <v>4705</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.001972526104275589</v>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.009947324692213681</v>
+        <v>0.009876536646558881</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -1717,19 +1717,19 @@
         <v>5635</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1816</v>
+        <v>1906</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13223</v>
+        <v>14650</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.005482012438861475</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.001767192231851048</v>
+        <v>0.001854629657301767</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01286475361768625</v>
+        <v>0.01425374192900573</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>16198</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9339</v>
+        <v>9365</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>24934</v>
+        <v>26003</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02937570486856713</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01693636387994629</v>
+        <v>0.01698327403722194</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04521833425417889</v>
+        <v>0.04715719236214562</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>7</v>
@@ -1767,19 +1767,19 @@
         <v>6866</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2902</v>
+        <v>2917</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>12805</v>
+        <v>13647</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01441110903494581</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.006090748957181914</v>
+        <v>0.006121812879893426</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02687715033411454</v>
+        <v>0.02864451621721986</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>24</v>
@@ -1788,19 +1788,19 @@
         <v>23064</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>15022</v>
+        <v>15672</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>34039</v>
+        <v>34482</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02243936333058833</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01461496133457956</v>
+        <v>0.01524756199169441</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03311751483475871</v>
+        <v>0.03354911375854745</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>45485</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>32667</v>
+        <v>33322</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>59127</v>
+        <v>59809</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08248960843717494</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05924373800514521</v>
+        <v>0.06043038108227064</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1072286075958299</v>
+        <v>0.108466775767259</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>20</v>
@@ -1838,19 +1838,19 @@
         <v>20219</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12262</v>
+        <v>12982</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>31175</v>
+        <v>30203</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04243938684936644</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02573777685202801</v>
+        <v>0.0272496829851661</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06543769176744134</v>
+        <v>0.06339595114035695</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>66</v>
@@ -1859,19 +1859,19 @@
         <v>65704</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>50565</v>
+        <v>51721</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>82799</v>
+        <v>80966</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06392565798415792</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04919604510433948</v>
+        <v>0.05032092148193756</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08055833438152034</v>
+        <v>0.07877420431524552</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>477455</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>460323</v>
+        <v>460229</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>493608</v>
+        <v>493102</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8658842419825542</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8348137052856037</v>
+        <v>0.834643117346979</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8951780952559396</v>
+        <v>0.8942602548661422</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>417</v>
@@ -1909,19 +1909,19 @@
         <v>440973</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>428695</v>
+        <v>427651</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>451618</v>
+        <v>450862</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.925612231343424</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8998404904022733</v>
+        <v>0.8976505258514206</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9479578041386334</v>
+        <v>0.9463693405896655</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>870</v>
@@ -1930,19 +1930,19 @@
         <v>918428</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>899319</v>
+        <v>898003</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>937548</v>
+        <v>936370</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8935691683373945</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8749775790947768</v>
+        <v>0.873696684721999</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9121717878155149</v>
+        <v>0.911024883341308</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>82317</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>63575</v>
+        <v>64115</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>101349</v>
+        <v>100419</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02512980794003197</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01940827416870598</v>
+        <v>0.01957329202710274</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03093989416371209</v>
+        <v>0.03065614851586061</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>77</v>
@@ -2055,19 +2055,19 @@
         <v>80367</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>65126</v>
+        <v>63306</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>99136</v>
+        <v>99950</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02379073281698098</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01927909472594457</v>
+        <v>0.01874035489263704</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02934702351044067</v>
+        <v>0.02958801573419693</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>156</v>
@@ -2076,19 +2076,19 @@
         <v>162683</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>136162</v>
+        <v>139577</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>188420</v>
+        <v>189981</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02444996594510032</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02046404028613749</v>
+        <v>0.02097719525401683</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02831799255469495</v>
+        <v>0.02855253288176125</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>39350</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>28165</v>
+        <v>28395</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>53216</v>
+        <v>53596</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01201290508078591</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.008598385930108815</v>
+        <v>0.008668585972865883</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01624577870949412</v>
+        <v>0.01636203417919943</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>28</v>
@@ -2126,19 +2126,19 @@
         <v>28529</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>18627</v>
+        <v>18363</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>40701</v>
+        <v>40335</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.008445342415733657</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.005514052916948042</v>
+        <v>0.00543589467109797</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01204866986131868</v>
+        <v>0.01194030096785694</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>67</v>
@@ -2147,19 +2147,19 @@
         <v>67879</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>51651</v>
+        <v>52585</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>85788</v>
+        <v>84516</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01020167068661185</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.00776278107837657</v>
+        <v>0.007903136824451172</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01289324994380749</v>
+        <v>0.01270209625146069</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>111453</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>92620</v>
+        <v>92824</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>135980</v>
+        <v>134466</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03402452326962435</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02827518062303653</v>
+        <v>0.02833735260795713</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04151238206583264</v>
+        <v>0.04105007241487022</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>83</v>
@@ -2197,19 +2197,19 @@
         <v>83233</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>67056</v>
+        <v>64470</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>101827</v>
+        <v>103121</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02463933830842292</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01985039355534119</v>
+        <v>0.01908474460165436</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03014349909456727</v>
+        <v>0.03052670949415415</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>192</v>
@@ -2218,19 +2218,19 @@
         <v>194686</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>168317</v>
+        <v>170149</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>225795</v>
+        <v>223123</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0292597100362276</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02529664442745211</v>
+        <v>0.0255719856514459</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03393504813170196</v>
+        <v>0.0335335588431827</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>186746</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>161226</v>
+        <v>162299</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>213995</v>
+        <v>214776</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05701014319803902</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04921932207808857</v>
+        <v>0.04954699178786276</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06532887124462218</v>
+        <v>0.06556728258556044</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>163</v>
@@ -2268,19 +2268,19 @@
         <v>165527</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>143001</v>
+        <v>144156</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>191534</v>
+        <v>193457</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04900052808235682</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04233210634220115</v>
+        <v>0.04267400371114267</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05669939987759176</v>
+        <v>0.05726863079445422</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>355</v>
@@ -2289,19 +2289,19 @@
         <v>352273</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>316440</v>
+        <v>320345</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>387668</v>
+        <v>387981</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05294370015451997</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04755835264434948</v>
+        <v>0.04814521176298854</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05826329876062017</v>
+        <v>0.05831038185020598</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>2855795</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2813618</v>
+        <v>2815930</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2894844</v>
+        <v>2892577</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8718226205115187</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8589467885152595</v>
+        <v>0.8596525875134103</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8837435275365558</v>
+        <v>0.8830513442112169</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2945</v>
@@ -2339,19 +2339,19 @@
         <v>3020409</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2985300</v>
+        <v>2983572</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3054923</v>
+        <v>3056490</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8941240583765057</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.883730790011876</v>
+        <v>0.8832192398555407</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9043409724514192</v>
+        <v>0.9048051122954938</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5739</v>
@@ -2360,19 +2360,19 @@
         <v>5876205</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5823223</v>
+        <v>5823759</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5928294</v>
+        <v>5926893</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8831449531775403</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8751822048541295</v>
+        <v>0.875262799258666</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8909736138348112</v>
+        <v>0.8907630446948639</v>
       </c>
     </row>
     <row r="27">
@@ -2703,19 +2703,19 @@
         <v>31520</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21287</v>
+        <v>21324</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45166</v>
+        <v>45936</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03233968272096088</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02184108521839623</v>
+        <v>0.02187924751890585</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04634076419958154</v>
+        <v>0.04713158988784925</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -2724,19 +2724,19 @@
         <v>31230</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21917</v>
+        <v>21321</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44029</v>
+        <v>44565</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02337950751452921</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01640787061858962</v>
+        <v>0.01596176652798205</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03296125951861757</v>
+        <v>0.03336251284353456</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>58</v>
@@ -2745,19 +2745,19 @@
         <v>62749</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>48493</v>
+        <v>48726</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>81854</v>
+        <v>81350</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02715934500569204</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02098893054980659</v>
+        <v>0.02108963473495411</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03542852270522751</v>
+        <v>0.03521030888119771</v>
       </c>
     </row>
     <row r="5">
@@ -2774,19 +2774,19 @@
         <v>8187</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3828</v>
+        <v>3783</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15529</v>
+        <v>15904</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.008399982097335992</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.003927421954866482</v>
+        <v>0.003880959548205979</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0159327366571858</v>
+        <v>0.01631750101822302</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -2795,19 +2795,19 @@
         <v>11929</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5922</v>
+        <v>6002</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19715</v>
+        <v>20557</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.008930522483220243</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.004433079647423678</v>
+        <v>0.004493493144800807</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01475946791456397</v>
+        <v>0.01538978866042979</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>19</v>
@@ -2816,19 +2816,19 @@
         <v>20116</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>12142</v>
+        <v>12257</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>31318</v>
+        <v>30667</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.008706714756815314</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.005255537334608769</v>
+        <v>0.00530501678722642</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01355497333885285</v>
+        <v>0.01327357641792805</v>
       </c>
     </row>
     <row r="6">
@@ -2845,19 +2845,19 @@
         <v>43033</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>30714</v>
+        <v>31699</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>58407</v>
+        <v>57496</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04415299578475795</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03151281903189224</v>
+        <v>0.0325238833175881</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0599265683074574</v>
+        <v>0.05899229854225831</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>23</v>
@@ -2866,19 +2866,19 @@
         <v>24607</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>15786</v>
+        <v>16294</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>37097</v>
+        <v>36357</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01842139894930994</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01181794982925168</v>
+        <v>0.01219849228377599</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02777182288947878</v>
+        <v>0.02721771785991831</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>61</v>
@@ -2887,19 +2887,19 @@
         <v>67640</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>52648</v>
+        <v>51582</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>88145</v>
+        <v>85407</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02927623740785911</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0227871770332109</v>
+        <v>0.02232576868506852</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03815146847016213</v>
+        <v>0.03696596969285516</v>
       </c>
     </row>
     <row r="7">
@@ -2916,19 +2916,19 @@
         <v>28315</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18639</v>
+        <v>18394</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41138</v>
+        <v>40921</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02905127868259815</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01912396346241821</v>
+        <v>0.01887262667619978</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04220856940663787</v>
+        <v>0.04198555832298638</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -2937,19 +2937,19 @@
         <v>25685</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17061</v>
+        <v>16923</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>38768</v>
+        <v>38307</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01922887445155315</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01277208493120046</v>
+        <v>0.01266945759809688</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02902280869777348</v>
+        <v>0.02867799496937775</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>49</v>
@@ -2958,19 +2958,19 @@
         <v>54000</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>41116</v>
+        <v>38995</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>72742</v>
+        <v>71181</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02337244206161621</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01779603440077595</v>
+        <v>0.01687804143581264</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03148439700427245</v>
+        <v>0.03080868632951377</v>
       </c>
     </row>
     <row r="8">
@@ -2987,19 +2987,19 @@
         <v>863588</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>842418</v>
+        <v>838966</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>884318</v>
+        <v>883651</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8860560607143471</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.864334553919307</v>
+        <v>0.8607934822139716</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9073250295773789</v>
+        <v>0.9066403593859872</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1158</v>
@@ -3008,19 +3008,19 @@
         <v>1242315</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1223023</v>
+        <v>1223802</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1260150</v>
+        <v>1261136</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9300396966013874</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9155966355587097</v>
+        <v>0.9161801111060236</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9433916338467585</v>
+        <v>0.9441292149424693</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1966</v>
@@ -3029,19 +3029,19 @@
         <v>2105904</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2077487</v>
+        <v>2075872</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2133379</v>
+        <v>2134894</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9114852607680173</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8991858754277112</v>
+        <v>0.89848693509507</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9233771806355345</v>
+        <v>0.9240330244702636</v>
       </c>
     </row>
     <row r="9">
@@ -3133,19 +3133,19 @@
         <v>50120</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36406</v>
+        <v>37154</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>66274</v>
+        <v>66836</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02553184110756397</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01854559660423686</v>
+        <v>0.01892682276906043</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03376060348721249</v>
+        <v>0.03404720859666068</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>54</v>
@@ -3154,19 +3154,19 @@
         <v>58626</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>43042</v>
+        <v>44288</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>74420</v>
+        <v>74330</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03340847094871682</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02452817319775736</v>
+        <v>0.02523798439589587</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04240888889205948</v>
+        <v>0.0423578543488326</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>99</v>
@@ -3175,19 +3175,19 @@
         <v>108746</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>88854</v>
+        <v>87600</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>132209</v>
+        <v>131603</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02924957776641302</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02389931484603015</v>
+        <v>0.02356192338379814</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0355605041034487</v>
+        <v>0.03539740972678468</v>
       </c>
     </row>
     <row r="11">
@@ -3204,19 +3204,19 @@
         <v>17447</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10224</v>
+        <v>10004</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>28782</v>
+        <v>30348</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.008887561219160997</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.005208086742901662</v>
+        <v>0.005096408131300794</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01466203740618059</v>
+        <v>0.01545950462081072</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>12</v>
@@ -3225,19 +3225,19 @@
         <v>13399</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7237</v>
+        <v>6335</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23657</v>
+        <v>22015</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.007635710587371109</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.00412395774545655</v>
+        <v>0.003609984912711775</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0134814921516208</v>
+        <v>0.01254570072325848</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>27</v>
@@ -3246,19 +3246,19 @@
         <v>30846</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>19313</v>
+        <v>20324</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>44746</v>
+        <v>44313</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.00829669290630812</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.005194532665237231</v>
+        <v>0.005466535675119509</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01203549202700553</v>
+        <v>0.01191886136773208</v>
       </c>
     </row>
     <row r="12">
@@ -3275,19 +3275,19 @@
         <v>48634</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>36463</v>
+        <v>36550</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>61841</v>
+        <v>63369</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02477480694326424</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01857494967984531</v>
+        <v>0.01861905623581616</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0315027372256415</v>
+        <v>0.03228104343065819</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>35</v>
@@ -3296,19 +3296,19 @@
         <v>39671</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>28884</v>
+        <v>26914</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>54771</v>
+        <v>54680</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02260685389535245</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01645961973771396</v>
+        <v>0.01533726777365001</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0312118407867609</v>
+        <v>0.03115992371000049</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>83</v>
@@ -3317,19 +3317,19 @@
         <v>88305</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>71741</v>
+        <v>71808</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>108817</v>
+        <v>110100</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02375154208463462</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01929619736474869</v>
+        <v>0.01931444351279293</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02926874035020947</v>
+        <v>0.02961386560341783</v>
       </c>
     </row>
     <row r="13">
@@ -3346,19 +3346,19 @@
         <v>67588</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>52632</v>
+        <v>52856</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>85912</v>
+        <v>86824</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03442997273924312</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02681147021425197</v>
+        <v>0.02692531936007299</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04376483829429861</v>
+        <v>0.04422928993373321</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -3367,19 +3367,19 @@
         <v>53346</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40786</v>
+        <v>40517</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>70770</v>
+        <v>70638</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03039985012481528</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02324259226457037</v>
+        <v>0.02308927929360492</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0403292167907801</v>
+        <v>0.04025400158723925</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>112</v>
@@ -3388,19 +3388,19 @@
         <v>120934</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>100070</v>
+        <v>97800</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>144634</v>
+        <v>142149</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03252777155860188</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02691608396394743</v>
+        <v>0.02630553857244531</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03890240437107181</v>
+        <v>0.03823421422666475</v>
       </c>
     </row>
     <row r="14">
@@ -3417,19 +3417,19 @@
         <v>1779256</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1753139</v>
+        <v>1747324</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1804726</v>
+        <v>1803730</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9063758179907677</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8930715116586548</v>
+        <v>0.8901096355675369</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9193508231818507</v>
+        <v>0.9188433553619842</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1482</v>
@@ -3438,19 +3438,19 @@
         <v>1589771</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1563169</v>
+        <v>1562100</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1612909</v>
+        <v>1614466</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9059491144437444</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8907893348176912</v>
+        <v>0.890180130851609</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9191345198696799</v>
+        <v>0.9200218130637867</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3166</v>
@@ -3459,19 +3459,19 @@
         <v>3369027</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3328266</v>
+        <v>3332994</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3403556</v>
+        <v>3405828</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9061744156840423</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8952109943837159</v>
+        <v>0.8964826697463698</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9154617699104203</v>
+        <v>0.9160728174271808</v>
       </c>
     </row>
     <row r="15">
@@ -3563,19 +3563,19 @@
         <v>12463</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6639</v>
+        <v>5999</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23270</v>
+        <v>22020</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0259005181562925</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01379788717957782</v>
+        <v>0.01246627311542767</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04836054604233767</v>
+        <v>0.04576155769849717</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -3584,19 +3584,19 @@
         <v>17011</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9803</v>
+        <v>9640</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27703</v>
+        <v>27229</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03716484091773457</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0214165068492959</v>
+        <v>0.02106126378037563</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06052200814037969</v>
+        <v>0.05948647567729605</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -3605,19 +3605,19 @@
         <v>29474</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18677</v>
+        <v>19692</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>41483</v>
+        <v>42501</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0313919842405961</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01989257964170992</v>
+        <v>0.02097373428581183</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04418262616697868</v>
+        <v>0.04526622764769129</v>
       </c>
     </row>
     <row r="17">
@@ -3634,19 +3634,19 @@
         <v>2810</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7589</v>
+        <v>7624</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.005839723617295457</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.001908424335517032</v>
+        <v>0.001900034054744841</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01577243054874609</v>
+        <v>0.01584429183725042</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -3655,19 +3655,19 @@
         <v>2956</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8994</v>
+        <v>7981</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.006457609191165802</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.002061695961766194</v>
+        <v>0.00205957866790252</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0196495848822735</v>
+        <v>0.01743521733602865</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -3676,19 +3676,19 @@
         <v>5766</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1934</v>
+        <v>1917</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>11772</v>
+        <v>11695</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.006140948799203782</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.00205940475946787</v>
+        <v>0.002042181369390366</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01253845594721117</v>
+        <v>0.01245549293848336</v>
       </c>
     </row>
     <row r="18">
@@ -3705,19 +3705,19 @@
         <v>12792</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6592</v>
+        <v>6690</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>23522</v>
+        <v>22997</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02658357966728175</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01370034961836065</v>
+        <v>0.01390281473774849</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04888322082466082</v>
+        <v>0.04779229559455273</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>8</v>
@@ -3726,19 +3726,19 @@
         <v>7938</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3934</v>
+        <v>3857</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>15577</v>
+        <v>15524</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01734120908100126</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.00859411844513789</v>
+        <v>0.008426674492300109</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03403026742143947</v>
+        <v>0.03391581096406885</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>19</v>
@@ -3747,19 +3747,19 @@
         <v>20729</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>12590</v>
+        <v>13226</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>32862</v>
+        <v>33706</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0220778347869187</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01340909982980963</v>
+        <v>0.01408707449348729</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03499997768209058</v>
+        <v>0.03589892313204076</v>
       </c>
     </row>
     <row r="19">
@@ -3776,19 +3776,19 @@
         <v>18574</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11733</v>
+        <v>11396</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29192</v>
+        <v>27843</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03860130891930509</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02438463259946036</v>
+        <v>0.02368417400421616</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06066712814238811</v>
+        <v>0.0578641728406141</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -3797,19 +3797,19 @@
         <v>11309</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5328</v>
+        <v>6127</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21397</v>
+        <v>19815</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02470741096045322</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01164120902468157</v>
+        <v>0.01338562073359337</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04674696824386161</v>
+        <v>0.04328996989879402</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>29</v>
@@ -3818,19 +3818,19 @@
         <v>29883</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>20746</v>
+        <v>20448</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>43729</v>
+        <v>43059</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03182789954213607</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02209633674622863</v>
+        <v>0.02177838211985364</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04657430069068821</v>
+        <v>0.04586097121174497</v>
       </c>
     </row>
     <row r="20">
@@ -3847,19 +3847,19 @@
         <v>434542</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>418516</v>
+        <v>420941</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>446509</v>
+        <v>446571</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9030748696398252</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8697688974896901</v>
+        <v>0.8748074158703255</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9279430708873847</v>
+        <v>0.9280718755924968</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>375</v>
@@ -3868,19 +3868,19 @@
         <v>418513</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>404490</v>
+        <v>405358</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>429895</v>
+        <v>429639</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9143289298496452</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8836929233141787</v>
+        <v>0.8855894251245447</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9391948045435605</v>
+        <v>0.9386350211546448</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>769</v>
@@ -3889,19 +3889,19 @@
         <v>853056</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>831503</v>
+        <v>832848</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>869619</v>
+        <v>870516</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9085613326311454</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8856065548121571</v>
+        <v>0.8870385740055184</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9262020590192804</v>
+        <v>0.9271581662093452</v>
       </c>
     </row>
     <row r="21">
@@ -3993,19 +3993,19 @@
         <v>94103</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>74608</v>
+        <v>76323</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>116884</v>
+        <v>117292</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02752449340479194</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02182246612976003</v>
+        <v>0.0223240631134219</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03418798663941293</v>
+        <v>0.03430725617172534</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>98</v>
@@ -4014,19 +4014,19 @@
         <v>106867</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>88282</v>
+        <v>87023</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>129783</v>
+        <v>130783</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0301176161245101</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02488006577978049</v>
+        <v>0.02452535882504651</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03657611329548644</v>
+        <v>0.03685800266136478</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>183</v>
@@ -4035,19 +4035,19 @@
         <v>200969</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>174534</v>
+        <v>173344</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>232442</v>
+        <v>233359</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02884514262725597</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02505090745624572</v>
+        <v>0.02488014650318941</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03336248828749504</v>
+        <v>0.03349401641313549</v>
       </c>
     </row>
     <row r="23">
@@ -4064,19 +4064,19 @@
         <v>28444</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>18876</v>
+        <v>19011</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>42872</v>
+        <v>43039</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.008319601800628301</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.005521219645248385</v>
+        <v>0.005560752833255072</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01253978471767776</v>
+        <v>0.012588567469755</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>26</v>
@@ -4085,19 +4085,19 @@
         <v>28284</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>18336</v>
+        <v>19949</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>39609</v>
+        <v>42435</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.007971171359773032</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.005167559118910417</v>
+        <v>0.00562199994305617</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01116289842776991</v>
+        <v>0.01195924806080826</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>52</v>
@@ -4106,19 +4106,19 @@
         <v>56728</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>41735</v>
+        <v>43125</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>74275</v>
+        <v>73535</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.008142149963390022</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.005990274933869496</v>
+        <v>0.00618971612411449</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01066066209561316</v>
+        <v>0.01055444703369048</v>
       </c>
     </row>
     <row r="24">
@@ -4135,19 +4135,19 @@
         <v>104459</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>84966</v>
+        <v>84038</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>128325</v>
+        <v>126002</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03055366777141079</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02485205411104176</v>
+        <v>0.02458074967189541</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03753430901976697</v>
+        <v>0.03685498898552587</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>66</v>
@@ -4156,19 +4156,19 @@
         <v>72215</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>56404</v>
+        <v>54892</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>91308</v>
+        <v>90074</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02035197046753847</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01589597923000947</v>
+        <v>0.01546989930009427</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02573286958443343</v>
+        <v>0.02538502337019811</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>163</v>
@@ -4177,19 +4177,19 @@
         <v>176674</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>153480</v>
+        <v>149654</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>205612</v>
+        <v>201558</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02535805419333968</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02202906874595279</v>
+        <v>0.02147988329955361</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02951145979596718</v>
+        <v>0.02892961999948819</v>
       </c>
     </row>
     <row r="25">
@@ -4206,19 +4206,19 @@
         <v>114476</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>94459</v>
+        <v>95342</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>137862</v>
+        <v>137864</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03348371311864248</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02762865671120529</v>
+        <v>0.02788708147300839</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04032392536915961</v>
+        <v>0.04032459195054137</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>83</v>
@@ -4227,19 +4227,19 @@
         <v>90341</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>71997</v>
+        <v>72076</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>111107</v>
+        <v>110556</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02546019874093786</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02029042466360809</v>
+        <v>0.0203128009471789</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03131278302367889</v>
+        <v>0.03115746482441994</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>190</v>
@@ -4248,19 +4248,19 @@
         <v>204817</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>180269</v>
+        <v>178280</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>239768</v>
+        <v>234586</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02939742443520669</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02587408163929469</v>
+        <v>0.02558859191368405</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03441394877845686</v>
+        <v>0.03367015634788188</v>
       </c>
     </row>
     <row r="26">
@@ -4277,19 +4277,19 @@
         <v>3077386</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3039115</v>
+        <v>3040909</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3118042</v>
+        <v>3111239</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9001185239045265</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8889242142313108</v>
+        <v>0.8894490634672463</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9120101353351158</v>
+        <v>0.9100201593130915</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3015</v>
@@ -4298,19 +4298,19 @@
         <v>3250600</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3215127</v>
+        <v>3216866</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3284314</v>
+        <v>3285198</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9160990433072406</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9061018266236962</v>
+        <v>0.9065920435677979</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9256006406550782</v>
+        <v>0.9258496655880707</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5901</v>
@@ -4319,19 +4319,19 @@
         <v>6327987</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6279438</v>
+        <v>6279566</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6377079</v>
+        <v>6371367</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9082572287808076</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9012890077062026</v>
+        <v>0.9013073107107089</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9153033349491784</v>
+        <v>0.9144835842783227</v>
       </c>
     </row>
     <row r="27">
@@ -4662,19 +4662,19 @@
         <v>23058</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14809</v>
+        <v>15231</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34495</v>
+        <v>34355</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03064601634188113</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01968205985672688</v>
+        <v>0.0202434648039843</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04584727732191742</v>
+        <v>0.04566097515337691</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -4683,19 +4683,19 @@
         <v>14800</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7895</v>
+        <v>8661</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25084</v>
+        <v>23992</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01489233807151114</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007944289360956272</v>
+        <v>0.008714922475268595</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02524070127174543</v>
+        <v>0.02414212195257688</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>38</v>
@@ -4704,19 +4704,19 @@
         <v>37858</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>26303</v>
+        <v>26565</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>51260</v>
+        <v>50239</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02168031325285824</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01506325455124568</v>
+        <v>0.01521322251754575</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02935577412292027</v>
+        <v>0.02877093314798838</v>
       </c>
     </row>
     <row r="5">
@@ -4733,19 +4733,19 @@
         <v>9741</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4999</v>
+        <v>4930</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17800</v>
+        <v>17920</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01294728388448412</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.006644044739431003</v>
+        <v>0.006552891971250853</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02365731185851572</v>
+        <v>0.02381760861940184</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -4754,19 +4754,19 @@
         <v>5757</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2646</v>
+        <v>2034</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12574</v>
+        <v>12569</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.005792661919386519</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.002662997205598665</v>
+        <v>0.002046350839264581</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0126527082443442</v>
+        <v>0.01264764632604263</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>16</v>
@@ -4775,19 +4775,19 @@
         <v>15498</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8849</v>
+        <v>9223</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>24533</v>
+        <v>23751</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.008875459187269454</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.005067801485439723</v>
+        <v>0.005281724103446382</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01404942468095466</v>
+        <v>0.01360187009173769</v>
       </c>
     </row>
     <row r="6">
@@ -4804,19 +4804,19 @@
         <v>33667</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23054</v>
+        <v>23158</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>48126</v>
+        <v>47437</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04474663920138214</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03064122378375634</v>
+        <v>0.0307796454967451</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06396321970292269</v>
+        <v>0.06304822150708686</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>20</v>
@@ -4825,19 +4825,19 @@
         <v>21407</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13635</v>
+        <v>13507</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>31655</v>
+        <v>32356</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02154112432448811</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01372018606417056</v>
+        <v>0.01359137461093456</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03185301156855378</v>
+        <v>0.03255842934714302</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>50</v>
@@ -4846,19 +4846,19 @@
         <v>55074</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>41420</v>
+        <v>41019</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>72433</v>
+        <v>72574</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03153996118984439</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0237203455207411</v>
+        <v>0.02349076890731547</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04148090578791751</v>
+        <v>0.0415617837723646</v>
       </c>
     </row>
     <row r="7">
@@ -4875,19 +4875,19 @@
         <v>31429</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21495</v>
+        <v>22077</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>42748</v>
+        <v>45041</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04177221968742967</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02856939545255723</v>
+        <v>0.02934279650420033</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05681617322242492</v>
+        <v>0.05986350280022874</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>43</v>
@@ -4896,19 +4896,19 @@
         <v>48556</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35410</v>
+        <v>35060</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>63116</v>
+        <v>63852</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04886003900202592</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03563202055605116</v>
+        <v>0.03527971930843071</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06351094212261481</v>
+        <v>0.06425169660145069</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>74</v>
@@ -4917,19 +4917,19 @@
         <v>79985</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>63287</v>
+        <v>63817</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>98979</v>
+        <v>98300</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04580602578862658</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03624350942367271</v>
+        <v>0.03654679592872333</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05668351659276229</v>
+        <v>0.05629459206696148</v>
       </c>
     </row>
     <row r="8">
@@ -4946,19 +4946,19 @@
         <v>654499</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>634693</v>
+        <v>634056</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>672570</v>
+        <v>670941</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.869887840884823</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8435633709467886</v>
+        <v>0.8427165348339158</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8939052270133949</v>
+        <v>0.891739732124509</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>808</v>
@@ -4967,19 +4967,19 @@
         <v>903259</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>883493</v>
+        <v>883144</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>920938</v>
+        <v>921351</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9089138366825883</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8890240369643746</v>
+        <v>0.8886722487392176</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9267026589315974</v>
+        <v>0.9271190023598493</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1473</v>
@@ -4988,19 +4988,19 @@
         <v>1557759</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1529559</v>
+        <v>1532771</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1583140</v>
+        <v>1583628</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8920982405814013</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8759488754793805</v>
+        <v>0.8777882973571851</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9066336079580271</v>
+        <v>0.9069131257693919</v>
       </c>
     </row>
     <row r="9">
@@ -5092,19 +5092,19 @@
         <v>70505</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>54489</v>
+        <v>56574</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>89017</v>
+        <v>91423</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03403664577339097</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02630479331417014</v>
+        <v>0.02731161807236217</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04297346478031274</v>
+        <v>0.04413530149800985</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>47</v>
@@ -5113,19 +5113,19 @@
         <v>49011</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>36561</v>
+        <v>36337</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>65601</v>
+        <v>64322</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02467537651673987</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01840754233133678</v>
+        <v>0.01829435695925919</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03302820912921847</v>
+        <v>0.03238415322933566</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>111</v>
@@ -5134,19 +5134,19 @@
         <v>119515</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>100826</v>
+        <v>98808</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>143855</v>
+        <v>143197</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02945431656108729</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0248482906649016</v>
+        <v>0.02435106672508297</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03545268753568277</v>
+        <v>0.03529068825133735</v>
       </c>
     </row>
     <row r="11">
@@ -5163,19 +5163,19 @@
         <v>25002</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16399</v>
+        <v>15347</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>37337</v>
+        <v>36505</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01207006825786036</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.007916775566913456</v>
+        <v>0.007408708478502815</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01802452414382764</v>
+        <v>0.01762320503350986</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -5184,19 +5184,19 @@
         <v>14529</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8779</v>
+        <v>8492</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>25070</v>
+        <v>23338</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.007314836754049818</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.004420145570786776</v>
+        <v>0.004275560110845323</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01262223949187511</v>
+        <v>0.01175002845703287</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>38</v>
@@ -5205,19 +5205,19 @@
         <v>39531</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>29371</v>
+        <v>29119</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>53992</v>
+        <v>53292</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.009742388577490504</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.007238479993022815</v>
+        <v>0.007176263397183899</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01330611230506218</v>
+        <v>0.01313375616216395</v>
       </c>
     </row>
     <row r="12">
@@ -5234,19 +5234,19 @@
         <v>86420</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>68735</v>
+        <v>68887</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>107686</v>
+        <v>106072</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04172007002344359</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03318222251261792</v>
+        <v>0.03325592200342534</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0519860745416144</v>
+        <v>0.05120700989838217</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>58</v>
@@ -5255,19 +5255,19 @@
         <v>61236</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>47664</v>
+        <v>46417</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>77575</v>
+        <v>79454</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03083038576314203</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02399723338194395</v>
+        <v>0.02336967044901442</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03905653911338093</v>
+        <v>0.04000291363232757</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>138</v>
@@ -5276,19 +5276,19 @@
         <v>147656</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>124930</v>
+        <v>125962</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>173204</v>
+        <v>172374</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03638958364059655</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03078870814141334</v>
+        <v>0.03104304883255183</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04268579781747808</v>
+        <v>0.04248137141637096</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>155046</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>132296</v>
+        <v>131985</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>182614</v>
+        <v>178435</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07484955033414437</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06386703714341677</v>
+        <v>0.06371661601773958</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0881580692062677</v>
+        <v>0.08614053421698988</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>117</v>
@@ -5326,19 +5326,19 @@
         <v>122740</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>100949</v>
+        <v>101741</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>147607</v>
+        <v>144586</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06179603647447523</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05082469380226846</v>
+        <v>0.05122362780623952</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07431577667726658</v>
+        <v>0.07279494910878737</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>260</v>
@@ -5347,19 +5347,19 @@
         <v>277786</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>247471</v>
+        <v>244923</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>310990</v>
+        <v>315182</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06845987215670338</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06098885200013988</v>
+        <v>0.06036077927158164</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07664292620989475</v>
+        <v>0.07767609240086165</v>
       </c>
     </row>
     <row r="14">
@@ -5376,19 +5376,19 @@
         <v>1734462</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1699794</v>
+        <v>1699544</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1771623</v>
+        <v>1766129</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8373236656111607</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8205878834835862</v>
+        <v>0.820467145699791</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8552637184422804</v>
+        <v>0.8526115544186623</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1669</v>
@@ -5397,19 +5397,19 @@
         <v>1738699</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1704364</v>
+        <v>1708373</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1766618</v>
+        <v>1768400</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.875383364491593</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8580970175604207</v>
+        <v>0.8601151999661932</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8894399432425169</v>
+        <v>0.8903370493661922</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3306</v>
@@ -5418,19 +5418,19 @@
         <v>3473160</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3418487</v>
+        <v>3421249</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3512293</v>
+        <v>3517592</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8559538390641223</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8424796331271798</v>
+        <v>0.8431603406968944</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8655980471639216</v>
+        <v>0.8669039145065734</v>
       </c>
     </row>
     <row r="15">
@@ -5522,19 +5522,19 @@
         <v>15435</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8472</v>
+        <v>8504</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26200</v>
+        <v>26470</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02822267971476763</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01549072697306233</v>
+        <v>0.01554999185229738</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04790821057149141</v>
+        <v>0.04840219453031732</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -5543,19 +5543,19 @@
         <v>25025</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16114</v>
+        <v>16495</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>37709</v>
+        <v>35382</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04557122299267371</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02934391017275999</v>
+        <v>0.03003790277547708</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06866961901846831</v>
+        <v>0.0644320041901187</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>37</v>
@@ -5564,19 +5564,19 @@
         <v>40460</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>29017</v>
+        <v>28969</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>55737</v>
+        <v>55852</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03691479129577403</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02647464016873142</v>
+        <v>0.02643082344107195</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05085345320504666</v>
+        <v>0.05095871186862942</v>
       </c>
     </row>
     <row r="17">
@@ -5593,19 +5593,19 @@
         <v>3883</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>949</v>
+        <v>1051</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9898</v>
+        <v>10153</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.007101076809306902</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.001734938643872501</v>
+        <v>0.001921985233046763</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01809792973952032</v>
+        <v>0.01856557697389132</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -5614,19 +5614,19 @@
         <v>2918</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8828</v>
+        <v>8020</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.005314386768784946</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.001609013418422882</v>
+        <v>0.001610774179425962</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01607597308611049</v>
+        <v>0.01460461330592127</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -5635,19 +5635,19 @@
         <v>6802</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2940</v>
+        <v>2811</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13610</v>
+        <v>12912</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.006205894490877448</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.002682263813448057</v>
+        <v>0.002564288991931306</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01241738977958137</v>
+        <v>0.01178060644219102</v>
       </c>
     </row>
     <row r="18">
@@ -5664,19 +5664,19 @@
         <v>10615</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5243</v>
+        <v>5308</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>18969</v>
+        <v>19226</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0194104303229475</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.00958625048731643</v>
+        <v>0.00970636335398921</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03468479308348716</v>
+        <v>0.03515550612255016</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>14</v>
@@ -5685,19 +5685,19 @@
         <v>13847</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>8080</v>
+        <v>8187</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>23502</v>
+        <v>22961</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02521520783156658</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01471396712614866</v>
+        <v>0.01490886324725849</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04279736042789576</v>
+        <v>0.04181292412981566</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>24</v>
@@ -5706,19 +5706,19 @@
         <v>24462</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>16302</v>
+        <v>16038</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>35348</v>
+        <v>35503</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02231878827551926</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01487376658953946</v>
+        <v>0.01463249104137138</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03225130909769628</v>
+        <v>0.03239260783485756</v>
       </c>
     </row>
     <row r="19">
@@ -5735,19 +5735,19 @@
         <v>40286</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>28453</v>
+        <v>29335</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>54773</v>
+        <v>55830</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07366415582511629</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05202716394942273</v>
+        <v>0.05363946869211342</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1001540566676248</v>
+        <v>0.1020876552802921</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>46</v>
@@ -5756,19 +5756,19 @@
         <v>47853</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>34983</v>
+        <v>35568</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>61913</v>
+        <v>62792</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08714221236336744</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06370484507594762</v>
+        <v>0.06477112696038009</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.112745318905811</v>
+        <v>0.114345232935382</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>80</v>
@@ -5777,19 +5777,19 @@
         <v>88139</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>69021</v>
+        <v>68309</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>106811</v>
+        <v>107473</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08041704391773151</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06297370187612235</v>
+        <v>0.06232389012530885</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09745289410557745</v>
+        <v>0.09805650290189825</v>
       </c>
     </row>
     <row r="20">
@@ -5806,19 +5806,19 @@
         <v>476667</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>458687</v>
+        <v>458374</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>492447</v>
+        <v>491388</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8716016573278617</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.838724759061425</v>
+        <v>0.8381524101763157</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9004567281677728</v>
+        <v>0.8985196490501357</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>439</v>
@@ -5827,19 +5827,19 @@
         <v>459497</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>440987</v>
+        <v>441338</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>476532</v>
+        <v>474436</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8367569700436073</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8030503515993185</v>
+        <v>0.8036888494532733</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8677778002945541</v>
+        <v>0.8639626278315837</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>879</v>
@@ -5848,19 +5848,19 @@
         <v>936164</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>913671</v>
+        <v>912484</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>960025</v>
+        <v>960949</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8541434820200977</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8336205180631041</v>
+        <v>0.8325374863278064</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8759137281346563</v>
+        <v>0.8767564147818706</v>
       </c>
     </row>
     <row r="21">
@@ -5952,19 +5952,19 @@
         <v>108997</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>89007</v>
+        <v>88718</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>132925</v>
+        <v>132346</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03233651141332988</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02640586863069099</v>
+        <v>0.02632010202369753</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03943511356316623</v>
+        <v>0.03926333085530549</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>85</v>
@@ -5973,19 +5973,19 @@
         <v>88835</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>72135</v>
+        <v>71144</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>112293</v>
+        <v>108135</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02517197806422151</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02043990277934202</v>
+        <v>0.02015897824484095</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03181873485131811</v>
+        <v>0.03064056791523525</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>186</v>
@@ -5994,19 +5994,19 @@
         <v>197832</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>169428</v>
+        <v>171353</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>230723</v>
+        <v>231231</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0286719975162429</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02455528943193083</v>
+        <v>0.02483425793673167</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03343889011512223</v>
+        <v>0.03351244256390654</v>
       </c>
     </row>
     <row r="23">
@@ -6023,19 +6023,19 @@
         <v>38627</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>26765</v>
+        <v>27461</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>52391</v>
+        <v>52124</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01145967551517933</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.007940589930543239</v>
+        <v>0.008146828039779458</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01554294799774823</v>
+        <v>0.01546367561594065</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>24</v>
@@ -6044,19 +6044,19 @@
         <v>23204</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>14579</v>
+        <v>15619</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>32675</v>
+        <v>34399</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.006574928889004098</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.004131076073223887</v>
+        <v>0.004425622518842878</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.009258548602826462</v>
+        <v>0.009747226383193228</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>61</v>
@@ -6065,19 +6065,19 @@
         <v>61831</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>47095</v>
+        <v>47949</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>78549</v>
+        <v>78072</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.008961226415546683</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.006825478351500539</v>
+        <v>0.006949301871782482</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01138410100655069</v>
+        <v>0.01131508955244801</v>
       </c>
     </row>
     <row r="24">
@@ -6094,19 +6094,19 @@
         <v>130703</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>110436</v>
+        <v>108635</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>154154</v>
+        <v>153565</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03877598926326047</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03276349019778049</v>
+        <v>0.03222894009989233</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04573334148099967</v>
+        <v>0.04555858261265975</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>92</v>
@@ -6115,19 +6115,19 @@
         <v>96490</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>78768</v>
+        <v>80188</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>117909</v>
+        <v>118159</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02734086175190392</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02231926673672071</v>
+        <v>0.02272165008069692</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03341017458373729</v>
+        <v>0.0334811678545924</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>212</v>
@@ -6136,19 +6136,19 @@
         <v>227192</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>200223</v>
+        <v>198617</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>259586</v>
+        <v>261131</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03292715282989489</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02901845692435228</v>
+        <v>0.02878567471815619</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03762202287027207</v>
+        <v>0.03784596789067859</v>
       </c>
     </row>
     <row r="25">
@@ -6165,19 +6165,19 @@
         <v>226761</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>196761</v>
+        <v>199002</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>257560</v>
+        <v>257819</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06727386368943465</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05837364964016624</v>
+        <v>0.05903859855958352</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07641094093512432</v>
+        <v>0.07648776268345903</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>206</v>
@@ -6186,19 +6186,19 @@
         <v>219150</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>192874</v>
+        <v>191736</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>251757</v>
+        <v>249185</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06209726726099572</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.054652075521283</v>
+        <v>0.05432961833796054</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0713367328982633</v>
+        <v>0.07060808967470907</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>414</v>
@@ -6207,19 +6207,19 @@
         <v>445911</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>407118</v>
+        <v>405873</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>493537</v>
+        <v>490296</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06462613931894427</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05900394509530302</v>
+        <v>0.05882348696674589</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07152864860608567</v>
+        <v>0.07105891486361537</v>
       </c>
     </row>
     <row r="26">
@@ -6236,19 +6236,19 @@
         <v>2865628</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2822361</v>
+        <v>2821127</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2910611</v>
+        <v>2908284</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8501539601187956</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8373178390951712</v>
+        <v>0.8369519874937131</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8634994074619576</v>
+        <v>0.862808963192501</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2916</v>
@@ -6257,19 +6257,19 @@
         <v>3101455</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3061883</v>
+        <v>3061370</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3138908</v>
+        <v>3136842</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8788149640338747</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.867601976295595</v>
+        <v>0.8674565555353783</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8894273799651912</v>
+        <v>0.8888421168611284</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5658</v>
@@ -6278,19 +6278,19 @@
         <v>5967082</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5902746</v>
+        <v>5900270</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6025589</v>
+        <v>6020380</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8648134839193713</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8554891097069024</v>
+        <v>0.8551302385758335</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8732928968310468</v>
+        <v>0.8725378853542443</v>
       </c>
     </row>
     <row r="27">
@@ -6621,19 +6621,19 @@
         <v>26406</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17368</v>
+        <v>17843</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38309</v>
+        <v>37789</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04564276752312538</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03002117685178277</v>
+        <v>0.03084251075353528</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06621857407399484</v>
+        <v>0.06531958203193358</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>55</v>
@@ -6642,19 +6642,19 @@
         <v>33779</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25942</v>
+        <v>26546</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44222</v>
+        <v>44851</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04109119985196533</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03155855103696881</v>
+        <v>0.03229333821306563</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05379587473783546</v>
+        <v>0.05456076393577335</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>84</v>
@@ -6663,19 +6663,19 @@
         <v>60184</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>47461</v>
+        <v>48271</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>75526</v>
+        <v>73359</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.04297130644713922</v>
+        <v>0.04297130644713921</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0338872079267854</v>
+        <v>0.03446551807339866</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05392513800918734</v>
+        <v>0.05237803484971232</v>
       </c>
     </row>
     <row r="5">
@@ -6692,19 +6692,19 @@
         <v>25262</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17357</v>
+        <v>17222</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>36676</v>
+        <v>38219</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04366554018370721</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03000232389032424</v>
+        <v>0.02976883888182331</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06339482560633387</v>
+        <v>0.06606288135996459</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>27</v>
@@ -6713,19 +6713,19 @@
         <v>16057</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10587</v>
+        <v>11142</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>22410</v>
+        <v>23376</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.01953289911072128</v>
+        <v>0.01953289911072127</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0128790173030484</v>
+        <v>0.01355370871422434</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02726119053468162</v>
+        <v>0.02843702332596371</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>56</v>
@@ -6734,19 +6734,19 @@
         <v>41319</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>31400</v>
+        <v>30433</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>54292</v>
+        <v>54465</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02950131898675071</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02241928646412849</v>
+        <v>0.02172870252538453</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03876401690224038</v>
+        <v>0.03888787280637406</v>
       </c>
     </row>
     <row r="6">
@@ -6763,19 +6763,19 @@
         <v>37014</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>26091</v>
+        <v>25343</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>53140</v>
+        <v>51220</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06397967903445986</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04509897115077612</v>
+        <v>0.04380560313057453</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09185372468534327</v>
+        <v>0.08853476117911996</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>58</v>
@@ -6784,19 +6784,19 @@
         <v>36410</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>28146</v>
+        <v>27532</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>47570</v>
+        <v>46923</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04429221792970852</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03423876299198663</v>
+        <v>0.03349179385180545</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05786885687506581</v>
+        <v>0.05708078299354825</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>97</v>
@@ -6805,19 +6805,19 @@
         <v>73424</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>60124</v>
+        <v>59462</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>92524</v>
+        <v>89590</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.05242447655783046</v>
+        <v>0.05242447655783045</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04292804341620483</v>
+        <v>0.04245560835165849</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06606150084855664</v>
+        <v>0.06396726815641016</v>
       </c>
     </row>
     <row r="7">
@@ -6834,19 +6834,19 @@
         <v>75319</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>60551</v>
+        <v>61089</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>90708</v>
+        <v>92119</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1301913522719319</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1046645589196263</v>
+        <v>0.1055944503408012</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1567899418173809</v>
+        <v>0.1592302278920218</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>232</v>
@@ -6855,19 +6855,19 @@
         <v>143698</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>126443</v>
+        <v>126570</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>161754</v>
+        <v>160644</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1748065759783384</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1538166021486965</v>
+        <v>0.1539703998122151</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.196771820996069</v>
+        <v>0.1954220259091949</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>320</v>
@@ -6876,19 +6876,19 @@
         <v>219017</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>196352</v>
+        <v>196341</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>244111</v>
+        <v>241480</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1563774582774048</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1401943748376717</v>
+        <v>0.1401865977060831</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1742940892829919</v>
+        <v>0.1724158642914822</v>
       </c>
     </row>
     <row r="8">
@@ -6905,19 +6905,19 @@
         <v>414528</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>391165</v>
+        <v>390630</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>434595</v>
+        <v>434678</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7165206609867758</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6761380942675875</v>
+        <v>0.6752127325156194</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7512067801843599</v>
+        <v>0.7513507475994388</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1055</v>
@@ -6926,19 +6926,19 @@
         <v>592095</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>572233</v>
+        <v>570915</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>613067</v>
+        <v>613689</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7202771071292666</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.696114975176535</v>
+        <v>0.6945122479148255</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7457886574660904</v>
+        <v>0.7465461493344021</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1561</v>
@@ -6947,19 +6947,19 @@
         <v>1006623</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>976197</v>
+        <v>977286</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1034374</v>
+        <v>1036641</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7187254397308749</v>
+        <v>0.7187254397308748</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6970012636404129</v>
+        <v>0.6977788553871883</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7385398149214343</v>
+        <v>0.7401580200365102</v>
       </c>
     </row>
     <row r="9">
@@ -7051,19 +7051,19 @@
         <v>125070</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>101594</v>
+        <v>102635</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>153960</v>
+        <v>158394</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05607086443486667</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04554638233645077</v>
+        <v>0.04601313881713137</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06902276285139441</v>
+        <v>0.07101065770817507</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>132</v>
@@ -7072,19 +7072,19 @@
         <v>104553</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>87380</v>
+        <v>87673</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>126429</v>
+        <v>125277</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.04815003559312774</v>
+        <v>0.04815003559312772</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04024135815533374</v>
+        <v>0.04037632570362962</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05822504055139707</v>
+        <v>0.05769440471651745</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>228</v>
@@ -7093,19 +7093,19 @@
         <v>229622</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>198160</v>
+        <v>198502</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>262901</v>
+        <v>266256</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.05216368869014243</v>
+        <v>0.05216368869014242</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0450162892154643</v>
+        <v>0.04509390436150426</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05972361954299492</v>
+        <v>0.06048582426479646</v>
       </c>
     </row>
     <row r="11">
@@ -7122,19 +7122,19 @@
         <v>50434</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>37300</v>
+        <v>36575</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>68055</v>
+        <v>65734</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.02261049866540764</v>
+        <v>0.02261049866540765</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01672232050345655</v>
+        <v>0.0163970327538946</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03051019751073803</v>
+        <v>0.02946952588183038</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>58</v>
@@ -7143,19 +7143,19 @@
         <v>45724</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>35241</v>
+        <v>35216</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>62005</v>
+        <v>59328</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02105730782333081</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01622968008147809</v>
+        <v>0.01621827113390552</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02855534869702913</v>
+        <v>0.02732236522822267</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>104</v>
@@ -7164,19 +7164,19 @@
         <v>96158</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>78892</v>
+        <v>79153</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>118949</v>
+        <v>116675</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02184434278622592</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01792204671823605</v>
+        <v>0.01798130734602047</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02702193975638574</v>
+        <v>0.0265053526526704</v>
       </c>
     </row>
     <row r="12">
@@ -7193,19 +7193,19 @@
         <v>106448</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>84183</v>
+        <v>84727</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>133633</v>
+        <v>133069</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04772230169501367</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03774075839375361</v>
+        <v>0.037984388759031</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05991010954648286</v>
+        <v>0.05965716535632053</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>122</v>
@@ -7214,19 +7214,19 @@
         <v>94904</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>78822</v>
+        <v>77179</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>114670</v>
+        <v>113400</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.04370652743932064</v>
+        <v>0.04370652743932062</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03630042379372699</v>
+        <v>0.03554348803537469</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05280940122470912</v>
+        <v>0.05222455260689213</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>209</v>
@@ -7235,19 +7235,19 @@
         <v>201352</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>175679</v>
+        <v>171556</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>234791</v>
+        <v>233952</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04574140599815788</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03990917085546065</v>
+        <v>0.03897269159312675</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05333788942398604</v>
+        <v>0.05314715529362671</v>
       </c>
     </row>
     <row r="13">
@@ -7264,19 +7264,19 @@
         <v>399206</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>360072</v>
+        <v>357988</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>442757</v>
+        <v>443801</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1789708225994923</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1614261316008752</v>
+        <v>0.1604919573763667</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1984952504395856</v>
+        <v>0.1989634519426141</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>481</v>
@@ -7285,19 +7285,19 @@
         <v>378410</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>346818</v>
+        <v>347267</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>414560</v>
+        <v>415342</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1742707654874498</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1597213885743594</v>
+        <v>0.1599280687210521</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1909189017124872</v>
+        <v>0.191279198127992</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>821</v>
@@ -7306,19 +7306,19 @@
         <v>777617</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>723636</v>
+        <v>727214</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>833537</v>
+        <v>830364</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1766523847801795</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1643895501923457</v>
+        <v>0.1652024445159621</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1893560277711087</v>
+        <v>0.1886350352143398</v>
       </c>
     </row>
     <row r="14">
@@ -7335,19 +7335,19 @@
         <v>1549408</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1496859</v>
+        <v>1500367</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1598381</v>
+        <v>1606759</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6946255126052198</v>
+        <v>0.6946255126052199</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6710669611764041</v>
+        <v>0.6726397181740109</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7165809752777204</v>
+        <v>0.7203367949983036</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2128</v>
@@ -7356,19 +7356,19 @@
         <v>1547802</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1505729</v>
+        <v>1505231</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1585262</v>
+        <v>1587401</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7128153636567711</v>
+        <v>0.7128153636567709</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6934396009273331</v>
+        <v>0.693209972555897</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7300671550950025</v>
+        <v>0.7310524595064666</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3551</v>
@@ -7377,19 +7377,19 @@
         <v>3097210</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3026689</v>
+        <v>3029068</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3158514</v>
+        <v>3156924</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7035981777452942</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6875777421742479</v>
+        <v>0.6881181418849824</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7175245658531463</v>
+        <v>0.7171633423200521</v>
       </c>
     </row>
     <row r="15">
@@ -7481,19 +7481,19 @@
         <v>29897</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19796</v>
+        <v>19704</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>45007</v>
+        <v>44480</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.04201472309696825</v>
+        <v>0.04201472309696824</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02781903875898448</v>
+        <v>0.02768964099938342</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06324871731745957</v>
+        <v>0.06250784579873135</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>48</v>
@@ -7502,19 +7502,19 @@
         <v>34307</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>25142</v>
+        <v>25349</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>46187</v>
+        <v>45719</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04668421048480541</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03421318220257955</v>
+        <v>0.03449406502230174</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06285027998875306</v>
+        <v>0.06221257698806546</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>73</v>
@@ -7523,19 +7523,19 @@
         <v>64204</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>50643</v>
+        <v>50211</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>80572</v>
+        <v>83656</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04438705967403143</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0350118045764361</v>
+        <v>0.03471321415591694</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05570261502254124</v>
+        <v>0.05783493442243208</v>
       </c>
     </row>
     <row r="17">
@@ -7552,19 +7552,19 @@
         <v>16773</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8797</v>
+        <v>9385</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26858</v>
+        <v>26827</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.02357166665452236</v>
+        <v>0.02357166665452235</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01236225413576559</v>
+        <v>0.01318890419355111</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03774350803024942</v>
+        <v>0.03769957699941615</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>24</v>
@@ -7573,19 +7573,19 @@
         <v>18167</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11862</v>
+        <v>11640</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>27211</v>
+        <v>26378</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02472147940358389</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01614087718232611</v>
+        <v>0.01583885526943171</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03702784695912428</v>
+        <v>0.03589486024732671</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>38</v>
@@ -7594,19 +7594,19 @@
         <v>34941</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>24534</v>
+        <v>24288</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>48882</v>
+        <v>47075</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.02415582988590346</v>
+        <v>0.02415582988590345</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01696129177926424</v>
+        <v>0.01679138955047688</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0337944132104739</v>
+        <v>0.03254518442360212</v>
       </c>
     </row>
     <row r="18">
@@ -7623,19 +7623,19 @@
         <v>33999</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>23680</v>
+        <v>23459</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>47160</v>
+        <v>48222</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04777957175667168</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03327772134453648</v>
+        <v>0.03296726283948694</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06627378293772765</v>
+        <v>0.06776739611243249</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>36</v>
@@ -7644,19 +7644,19 @@
         <v>26325</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>18382</v>
+        <v>18665</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>37984</v>
+        <v>36422</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03582228299226245</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02501332093641307</v>
+        <v>0.02539886560477905</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05168698602074165</v>
+        <v>0.04956228471504666</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>69</v>
@@ -7665,19 +7665,19 @@
         <v>60324</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>46475</v>
+        <v>46387</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>75575</v>
+        <v>75789</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04170466221259567</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03213015291348342</v>
+        <v>0.03206932982134784</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05224808758961912</v>
+        <v>0.05239601907824008</v>
       </c>
     </row>
     <row r="19">
@@ -7694,19 +7694,19 @@
         <v>119810</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>96097</v>
+        <v>98891</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>142202</v>
+        <v>145088</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1683703299844714</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.135046284465997</v>
+        <v>0.1389727060552087</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1998375655220813</v>
+        <v>0.203892942952147</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>114</v>
@@ -7715,19 +7715,19 @@
         <v>82639</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>68084</v>
+        <v>68408</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>97825</v>
+        <v>97167</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1124523072717238</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09264747070308585</v>
+        <v>0.09308777071794982</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1331170140442306</v>
+        <v>0.132222766017887</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>218</v>
@@ -7736,19 +7736,19 @@
         <v>202449</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>178050</v>
+        <v>175795</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>236627</v>
+        <v>230922</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.1399611365162469</v>
+        <v>0.1399611365162468</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1230930798655198</v>
+        <v>0.1215341049523573</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1635897401845811</v>
+        <v>0.159645921716166</v>
       </c>
     </row>
     <row r="20">
@@ -7765,19 +7765,19 @@
         <v>511107</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>485071</v>
+        <v>483847</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>537336</v>
+        <v>535430</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7182637085073663</v>
+        <v>0.7182637085073661</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6816745168139592</v>
+        <v>0.6799546724438426</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7551235164829342</v>
+        <v>0.7524443892336894</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>782</v>
@@ -7786,19 +7786,19 @@
         <v>573439</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>552472</v>
+        <v>552395</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>590544</v>
+        <v>591329</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7803197198476243</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7517889908515781</v>
+        <v>0.7516836526774742</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8035963207609236</v>
+        <v>0.8046632764211321</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1287</v>
@@ -7807,19 +7807,19 @@
         <v>1084546</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1049328</v>
+        <v>1050603</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1115754</v>
+        <v>1118526</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7497913117112226</v>
+        <v>0.7497913117112225</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7254436018877404</v>
+        <v>0.7263252186438663</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7713668978422841</v>
+        <v>0.7732830665189808</v>
       </c>
     </row>
     <row r="21">
@@ -7911,19 +7911,19 @@
         <v>181373</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>153432</v>
+        <v>153870</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>219326</v>
+        <v>217140</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.05151631357573262</v>
+        <v>0.05151631357573263</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.043580205869275</v>
+        <v>0.04370462826888692</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06229642153432979</v>
+        <v>0.06167545991154831</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>235</v>
@@ -7932,19 +7932,19 @@
         <v>172638</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>149719</v>
+        <v>148201</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>195514</v>
+        <v>197071</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04630473922713178</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0401574023656744</v>
+        <v>0.03975029936026109</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05244034271452925</v>
+        <v>0.05285807365462805</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>385</v>
@@ -7953,19 +7953,19 @@
         <v>354011</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>318958</v>
+        <v>314510</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>398198</v>
+        <v>391955</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04883589183826672</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04400038165200063</v>
+        <v>0.04338670905017048</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05493153766989414</v>
+        <v>0.05407031166521883</v>
       </c>
     </row>
     <row r="23">
@@ -7982,19 +7982,19 @@
         <v>92469</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>73180</v>
+        <v>73984</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>112419</v>
+        <v>113126</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.02626459541581108</v>
+        <v>0.02626459541581109</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02078579869779413</v>
+        <v>0.02101410636757918</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03193111410843622</v>
+        <v>0.0321318083994705</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>109</v>
@@ -8003,19 +8003,19 @@
         <v>79948</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>66198</v>
+        <v>65912</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>97152</v>
+        <v>98714</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02144343340097222</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.017755644122667</v>
+        <v>0.01767879301658735</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02605792593213193</v>
+        <v>0.02647679226134427</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>198</v>
@@ -8024,19 +8024,19 @@
         <v>172417</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>148110</v>
+        <v>150442</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>199509</v>
+        <v>199026</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.02378497091081128</v>
+        <v>0.02378497091081129</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02043177321369686</v>
+        <v>0.02075347910063676</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02752235201082199</v>
+        <v>0.0274556272873259</v>
       </c>
     </row>
     <row r="24">
@@ -8053,19 +8053,19 @@
         <v>177461</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>149508</v>
+        <v>150992</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>207505</v>
+        <v>212714</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.05040533910635447</v>
+        <v>0.05040533910635448</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04246568997564097</v>
+        <v>0.04288721376451878</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05893871798511961</v>
+        <v>0.0604183570437299</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>216</v>
@@ -8074,19 +8074,19 @@
         <v>157639</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>136537</v>
+        <v>136158</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>178649</v>
+        <v>180791</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04228162008767557</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03662173168662351</v>
+        <v>0.03652017960326151</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04791683986990296</v>
+        <v>0.0484914503898274</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>375</v>
@@ -8095,19 +8095,19 @@
         <v>335100</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>298083</v>
+        <v>300798</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>372938</v>
+        <v>373578</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.04622714042967665</v>
+        <v>0.04622714042967666</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04112064182205113</v>
+        <v>0.04149519164022138</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05144688937224162</v>
+        <v>0.0515351117664479</v>
       </c>
     </row>
     <row r="25">
@@ -8124,19 +8124,19 @@
         <v>594336</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>545028</v>
+        <v>548293</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>649973</v>
+        <v>648688</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1688126988075015</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1548073787198632</v>
+        <v>0.1557347632377405</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1846157241892717</v>
+        <v>0.1842506153105033</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>827</v>
@@ -8145,19 +8145,19 @@
         <v>604746</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>567575</v>
+        <v>567269</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>644408</v>
+        <v>645777</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1622040227742583</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1522339128592186</v>
+        <v>0.1521519261029077</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1728421227087402</v>
+        <v>0.1732092771246706</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1359</v>
@@ -8166,19 +8166,19 @@
         <v>1199082</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1136233</v>
+        <v>1138200</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1268575</v>
+        <v>1260442</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.1654137184398644</v>
+        <v>0.1654137184398645</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1567436250205573</v>
+        <v>0.1570149430547919</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1750002155370158</v>
+        <v>0.1738783595851318</v>
       </c>
     </row>
     <row r="26">
@@ -8195,19 +8195,19 @@
         <v>2475044</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2418474</v>
+        <v>2412907</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2544391</v>
+        <v>2540531</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.7030010530946001</v>
+        <v>0.7030010530946004</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6869332904866001</v>
+        <v>0.685352003304518</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7226980133564848</v>
+        <v>0.7216018657414844</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3965</v>
@@ -8216,19 +8216,19 @@
         <v>2713336</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2667701</v>
+        <v>2664789</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2758007</v>
+        <v>2763484</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7277661845099621</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7155260082975585</v>
+        <v>0.7147451515764193</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7397477715441433</v>
+        <v>0.741216952199622</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6399</v>
@@ -8237,19 +8237,19 @@
         <v>5188380</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5110694</v>
+        <v>5110485</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5266104</v>
+        <v>5258361</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7157382783813809</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7050214867014261</v>
+        <v>0.7049926362822374</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7264604051583593</v>
+        <v>0.7253922276030249</v>
       </c>
     </row>
     <row r="27">
